--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_4.xlsx
@@ -518,331 +518,331 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_24</t>
+          <t>model_24_4_15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999125591211607</v>
+        <v>0.9996704190271979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992933708916103</v>
+        <v>0.9994413314542088</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999620882588323</v>
+        <v>0.9978664154639101</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9987990218688476</v>
+        <v>0.9990536565139803</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9992833646033169</v>
+        <v>0.9989465659537561</v>
       </c>
       <c r="G2" t="n">
-        <v>8.162222218546568e-05</v>
+        <v>0.0003076493711780525</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006596072552487994</v>
+        <v>0.0005214925647811351</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001093220726442522</v>
+        <v>0.0005068390403928167</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004005385082059087</v>
+        <v>0.001380295522056861</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002549300480311294</v>
+        <v>0.0009435672812248391</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004318553409349331</v>
+        <v>0.0009869730657160872</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009034501767417264</v>
+        <v>0.01753993646448163</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000123445946597</v>
+        <v>1.000465290785132</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009419119211653086</v>
+        <v>0.01828664787244854</v>
       </c>
       <c r="P2" t="n">
-        <v>100.8268180047305</v>
+        <v>98.17309965746448</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.8007268243267</v>
+        <v>148.1470084770607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_23</t>
+          <t>model_24_4_14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999136956539689</v>
+        <v>0.9997067894097649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992921666517153</v>
+        <v>0.9994399588008429</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9996254596468103</v>
+        <v>0.9980524655117652</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9988151429551805</v>
+        <v>0.999171833096462</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9992927760464845</v>
+        <v>0.999067456026978</v>
       </c>
       <c r="G3" t="n">
-        <v>8.056131869702555e-05</v>
+        <v>0.0002736992155271185</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006607313603307742</v>
+        <v>0.0005227738764456333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001080022347654924</v>
+        <v>0.0004626423253694069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003951619607876455</v>
+        <v>0.001207928289628961</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000251582097776569</v>
+        <v>0.0008352853074991839</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004306400163752308</v>
+        <v>0.0009596076018210758</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00897559572936669</v>
+        <v>0.01654385733518996</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000121841429691</v>
+        <v>1.000413944362685</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009357705421610388</v>
+        <v>0.01724816359245486</v>
       </c>
       <c r="P3" t="n">
-        <v>100.852983881118</v>
+        <v>98.40696161619923</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.8268927007143</v>
+        <v>148.3808704357955</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_22</t>
+          <t>model_24_4_16</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999149475238127</v>
+        <v>0.9996304441865306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992908085699148</v>
+        <v>0.9994398395930438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9996304882956998</v>
+        <v>0.9976691838841563</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9988329571620477</v>
+        <v>0.9989231760169819</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9993031648805373</v>
+        <v>0.9988141753668699</v>
       </c>
       <c r="G4" t="n">
-        <v>7.939275314857064e-05</v>
+        <v>0.0003449641302483362</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0006619990700785761</v>
+        <v>0.0005228851516934463</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001065521765453441</v>
+        <v>0.0005536919599404879</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003892207403287647</v>
+        <v>0.001570608710009481</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002478864584370544</v>
+        <v>0.001062150334974985</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004292903111821684</v>
+        <v>0.001020833043390358</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008910261115622294</v>
+        <v>0.01857321001465111</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000120074084029</v>
+        <v>1.00052172585431</v>
       </c>
       <c r="O4" t="n">
-        <v>0.009289589378097599</v>
+        <v>0.01936391001681984</v>
       </c>
       <c r="P4" t="n">
-        <v>100.8822069280914</v>
+        <v>97.94414023326576</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.8561157476876</v>
+        <v>147.918049052862</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_21</t>
+          <t>model_24_4_13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999163323935459</v>
+        <v>0.9997369320686239</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9992892854701195</v>
+        <v>0.999437171196325</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9996360796164704</v>
+        <v>0.9982161249577171</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9988526270617181</v>
+        <v>0.9992697943157454</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999314651654302</v>
+        <v>0.9991689177393651</v>
       </c>
       <c r="G5" t="n">
-        <v>7.810003804144044e-05</v>
+        <v>0.0002455623665919367</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000663420816881163</v>
+        <v>0.0005253759829013918</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001049398665942795</v>
+        <v>0.0004237645611494556</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0003826606273123993</v>
+        <v>0.001065046308287383</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002438002469533394</v>
+        <v>0.0007444054347184195</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004277520476757944</v>
+        <v>0.0009409564554742469</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008837422590407254</v>
+        <v>0.01567042968753367</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000118118973818</v>
+        <v>1.000371390020766</v>
       </c>
       <c r="O5" t="n">
-        <v>0.009213649966067621</v>
+        <v>0.01633755232159336</v>
       </c>
       <c r="P5" t="n">
-        <v>100.9150400280649</v>
+        <v>98.62391920784228</v>
       </c>
       <c r="Q5" t="n">
-        <v>150.8889488476611</v>
+        <v>148.5978280274385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_20</t>
+          <t>model_24_4_17</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999178545737869</v>
+        <v>0.9995888609548005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9992875751050615</v>
+        <v>0.9994346884493611</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9996422192875318</v>
+        <v>0.9974623720814306</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9988743144290766</v>
+        <v>0.998787806917143</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9993273063977933</v>
+        <v>0.9986765341106415</v>
       </c>
       <c r="G6" t="n">
-        <v>7.667914960240626e-05</v>
+        <v>0.0003837802517753991</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006650173675864335</v>
+        <v>0.0005276935182122453</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001031694346776221</v>
+        <v>0.0006028206885483056</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0003754276681573785</v>
+        <v>0.001768052201820753</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002392985514175003</v>
+        <v>0.001185436445184529</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004260659499146306</v>
+        <v>0.00105264499192922</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00875666315455872</v>
+        <v>0.0195903101500563</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000115970013477</v>
+        <v>1.000580431593223</v>
       </c>
       <c r="O6" t="n">
-        <v>0.009129452433839936</v>
+        <v>0.02042431021067678</v>
       </c>
       <c r="P6" t="n">
-        <v>100.9517614601242</v>
+        <v>97.73088086036387</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.9256702797205</v>
+        <v>147.7047896799601</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_19</t>
+          <t>model_24_4_12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999195222633209</v>
+        <v>0.9997693300578899</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9992856584602148</v>
+        <v>0.9994287413424828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9996490078613978</v>
+        <v>0.9983930398453507</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9988980768742799</v>
+        <v>0.9993739246753283</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9993411968710928</v>
+        <v>0.9992771552060041</v>
       </c>
       <c r="G7" t="n">
-        <v>7.512243462555038e-05</v>
+        <v>0.000215320265719566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0006668064714198953</v>
+        <v>0.0005332448814352977</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001012118855319928</v>
+        <v>0.000381737929271166</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0003675026492864002</v>
+        <v>0.0009131662867458856</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002343572674091965</v>
+        <v>0.000647456477650477</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004241626238324907</v>
+        <v>0.0009097931956204111</v>
       </c>
       <c r="M7" t="n">
-        <v>0.008667319921726115</v>
+        <v>0.01467379520504379</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000113615628253</v>
+        <v>1.000325651682979</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00903630567461966</v>
+        <v>0.01529848904586609</v>
       </c>
       <c r="P7" t="n">
-        <v>100.9927826275423</v>
+        <v>98.88676806040814</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9666914471385</v>
+        <v>148.8606768800044</v>
       </c>
     </row>
     <row r="8">
@@ -852,602 +852,602 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999213497593539</v>
+        <v>0.9995506467928527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9992835082143224</v>
+        <v>0.9994268717410644</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9996564400915868</v>
+        <v>0.9972706279222181</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9989241831175266</v>
+        <v>0.998663310549857</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9993564469147593</v>
+        <v>0.9985497434321798</v>
       </c>
       <c r="G8" t="n">
-        <v>7.341654729662344e-05</v>
+        <v>0.0004194514945459216</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0006688136315754279</v>
+        <v>0.0005349900722933733</v>
       </c>
       <c r="I8" t="n">
-        <v>9.906873202964978e-05</v>
+        <v>0.0006483700558277912</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0003587959497606527</v>
+        <v>0.001949637197983025</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002289323408951513</v>
+        <v>0.001299003626905408</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004220420502011594</v>
+        <v>0.001076310059097923</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008568345656929547</v>
+        <v>0.02048051499708739</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000111035633853</v>
+        <v>1.000634380998326</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00893311787046573</v>
+        <v>0.02135241292102405</v>
       </c>
       <c r="P8" t="n">
-        <v>101.0387224154862</v>
+        <v>97.55312533113934</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.0126312350824</v>
+        <v>147.5270341507356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_17</t>
+          <t>model_24_4_11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999233423734287</v>
+        <v>0.9997974012045598</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9992811005374606</v>
+        <v>0.9994186225961803</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9996645987590691</v>
+        <v>0.9985611900254455</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9989526830302875</v>
+        <v>0.9994631344410194</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9993731134583533</v>
+        <v>0.9993720927899606</v>
       </c>
       <c r="G9" t="n">
-        <v>7.155652952339662e-05</v>
+        <v>0.0001891170824840432</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0006710610922412794</v>
+        <v>0.000542690286947093</v>
       </c>
       <c r="I9" t="n">
-        <v>9.67161034989977e-05</v>
+        <v>0.0003417933784556055</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0003492909369339206</v>
+        <v>0.0007830487956590164</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002230035202164591</v>
+        <v>0.0005624203063787195</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004196487419262927</v>
+        <v>0.0008812467643454001</v>
       </c>
       <c r="M9" t="n">
-        <v>0.008459109263001433</v>
+        <v>0.01375198467436767</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00010822253163</v>
+        <v>1.000286021828857</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008819231057097586</v>
+        <v>0.01433743513248823</v>
       </c>
       <c r="P9" t="n">
-        <v>101.0900455958739</v>
+        <v>99.14628850132621</v>
       </c>
       <c r="Q9" t="n">
-        <v>151.0639544154701</v>
+        <v>149.1201973209224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_16</t>
+          <t>model_24_4_19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999255129918788</v>
+        <v>0.999515168043995</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999278401058156</v>
+        <v>0.9994172611512082</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9996735269939645</v>
+        <v>0.997089806549922</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9989838004029685</v>
+        <v>0.9985482042291715</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9993913188881108</v>
+        <v>0.9984320465030837</v>
       </c>
       <c r="G10" t="n">
-        <v>6.953035247936769e-05</v>
+        <v>0.0004525693492674285</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006735809376785583</v>
+        <v>0.0005439611360680152</v>
       </c>
       <c r="I10" t="n">
-        <v>9.41415629641786e-05</v>
+        <v>0.0006913246841853133</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0003389129744135104</v>
+        <v>0.002117526279854327</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002165272686888445</v>
+        <v>0.001404425482019821</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000416976494743251</v>
+        <v>0.001095081988954798</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00833848622229285</v>
+        <v>0.02127367737997896</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000105158129112</v>
+        <v>1.000684468643772</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008693472843821923</v>
+        <v>0.02217934186862779</v>
       </c>
       <c r="P10" t="n">
-        <v>101.1474943488177</v>
+        <v>97.40113909703508</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.121403168414</v>
+        <v>147.3750479166313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_15</t>
+          <t>model_24_4_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999278980105608</v>
+        <v>0.9998213495067948</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9992753362658472</v>
+        <v>0.9994072272767824</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9996833683166756</v>
+        <v>0.9987182956389102</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9990180819192137</v>
+        <v>0.9995387236184083</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9994113776403725</v>
+        <v>0.9994544693735765</v>
       </c>
       <c r="G11" t="n">
-        <v>6.730404222994227e-05</v>
+        <v>0.0001667623935567614</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0006764417867700232</v>
+        <v>0.0005533273174082509</v>
       </c>
       <c r="I11" t="n">
-        <v>9.130372496675319e-05</v>
+        <v>0.0003044724956774</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0003274797376044984</v>
+        <v>0.0006727977033154096</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002093917312856258</v>
+        <v>0.0004886350994964048</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004139468979122726</v>
+        <v>0.0008561338728731964</v>
       </c>
       <c r="M11" t="n">
-        <v>0.008203904084638135</v>
+        <v>0.01291365144166287</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000101791043914</v>
+        <v>1.000252212460996</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008553161265943816</v>
+        <v>0.01346341231847816</v>
       </c>
       <c r="P11" t="n">
-        <v>101.2125805205305</v>
+        <v>99.39788110350393</v>
       </c>
       <c r="Q11" t="n">
-        <v>151.1864893401267</v>
+        <v>149.3717899231002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_14</t>
+          <t>model_24_4_20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999304762213252</v>
+        <v>0.9994803473440378</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9992718939419926</v>
+        <v>0.9994065559093976</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9996940565794604</v>
+        <v>0.9969126946598318</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9990552543922944</v>
+        <v>0.9984355184973637</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999433134844425</v>
+        <v>0.9983168123036297</v>
       </c>
       <c r="G12" t="n">
-        <v>6.489739565166251e-05</v>
+        <v>0.0004850729442254277</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0006796550449877997</v>
+        <v>0.0005539540093923634</v>
       </c>
       <c r="I12" t="n">
-        <v>8.822166383050412e-05</v>
+        <v>0.0007333981145542662</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0003150823370791848</v>
+        <v>0.002281884795881394</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002016520004548444</v>
+        <v>0.00150764145521783</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004105436280692422</v>
+        <v>0.001113060167346293</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008055891983614385</v>
+        <v>0.02202437159660697</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000098151216953</v>
+        <v>1.000733627279005</v>
       </c>
       <c r="O12" t="n">
-        <v>0.008398847983352196</v>
+        <v>0.02296199469220891</v>
       </c>
       <c r="P12" t="n">
-        <v>101.2854061273865</v>
+        <v>97.26242255574202</v>
       </c>
       <c r="Q12" t="n">
-        <v>151.2593149469828</v>
+        <v>147.2363313753382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_13</t>
+          <t>model_24_4_21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999332853107661</v>
+        <v>0.9994442271303974</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9992679751871179</v>
+        <v>0.9993948684985658</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9997057525716809</v>
+        <v>0.9967304846176643</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990959203920415</v>
+        <v>0.9983187827390868</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9994569381333576</v>
+        <v>0.9981976045500349</v>
       </c>
       <c r="G13" t="n">
-        <v>6.227523396344795e-05</v>
+        <v>0.0005187895781646319</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0006833130306498175</v>
+        <v>0.0005648636943858291</v>
       </c>
       <c r="I13" t="n">
-        <v>8.484901443010365e-05</v>
+        <v>0.0007766826253669301</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0003015198096268397</v>
+        <v>0.002452150504679353</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001931844120284716</v>
+        <v>0.001614416565023142</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004067031285807838</v>
+        <v>0.001133164134960604</v>
       </c>
       <c r="M13" t="n">
-        <v>0.007891465894461431</v>
+        <v>0.02277695278487954</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000094185443624</v>
+        <v>1.000784620521792</v>
       </c>
       <c r="O13" t="n">
-        <v>0.008227421935175073</v>
+        <v>0.02374661481972408</v>
       </c>
       <c r="P13" t="n">
-        <v>101.3678934797659</v>
+        <v>97.12802438814516</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.3418022993621</v>
+        <v>147.1019332077414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_12</t>
+          <t>model_24_4_9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999362968648569</v>
+        <v>0.9998449301098749</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992635727675897</v>
+        <v>0.9993909710444077</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9997183134497206</v>
+        <v>0.9988826107099066</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999139743455961</v>
+        <v>0.9996120458411282</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9994825718897307</v>
+        <v>0.9995359571091041</v>
       </c>
       <c r="G14" t="n">
-        <v>5.946408041169775e-05</v>
+        <v>0.000144750935650378</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000687422496035556</v>
+        <v>0.000568501796763975</v>
       </c>
       <c r="I14" t="n">
-        <v>8.122696706631684e-05</v>
+        <v>0.000265438985874013</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000286904368935615</v>
+        <v>0.000565853092629559</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001840656680009659</v>
+        <v>0.0004156460392517861</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004024133104383662</v>
+        <v>0.0008232092204496475</v>
       </c>
       <c r="M14" t="n">
-        <v>0.007711295637679686</v>
+        <v>0.01203124829975585</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000089933837849</v>
+        <v>1.000218922197824</v>
       </c>
       <c r="O14" t="n">
-        <v>0.008039581457558282</v>
+        <v>0.01254344344799384</v>
       </c>
       <c r="P14" t="n">
-        <v>101.4602762365338</v>
+        <v>99.68099195525234</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.43418505613</v>
+        <v>149.6549007748486</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_11</t>
+          <t>model_24_4_22</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999395434285173</v>
+        <v>0.9994126165083472</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9992585641597784</v>
+        <v>0.9993832908636805</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9997319307644108</v>
+        <v>0.9965676142202532</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9991872962787443</v>
+        <v>0.998217217654277</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9995103822099338</v>
+        <v>0.9980933132257999</v>
       </c>
       <c r="G15" t="n">
-        <v>5.643355574233993e-05</v>
+        <v>0.0005482967063024731</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0006920978115748245</v>
+        <v>0.000575670908351819</v>
       </c>
       <c r="I15" t="n">
-        <v>7.730028625472076e-05</v>
+        <v>0.0008153729488745863</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0002710450154598832</v>
+        <v>0.002600288927811545</v>
       </c>
       <c r="K15" t="n">
-        <v>0.000174172650857302</v>
+        <v>0.001707830938343066</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003975433362119108</v>
+        <v>0.001148238953806822</v>
       </c>
       <c r="M15" t="n">
-        <v>0.007512227082719207</v>
+        <v>0.02341573629639848</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000085350453858</v>
+        <v>1.000829247282333</v>
       </c>
       <c r="O15" t="n">
-        <v>0.007832038142084418</v>
+        <v>0.02441259266779253</v>
       </c>
       <c r="P15" t="n">
-        <v>101.5648932328164</v>
+        <v>97.01738796536139</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.5388020524126</v>
+        <v>146.9912967849576</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_10</t>
+          <t>model_24_4_8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999943014528842</v>
+        <v>0.9998643047689252</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9992528812164083</v>
+        <v>0.9993747251375986</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9997465868825957</v>
+        <v>0.9990365315365568</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9992384710195752</v>
+        <v>0.9996718551097007</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9995403113950274</v>
+        <v>0.999605064337875</v>
       </c>
       <c r="G16" t="n">
-        <v>5.319343595291381e-05</v>
+        <v>0.0001266655418760585</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0006974025897584375</v>
+        <v>0.0005836666376573221</v>
       </c>
       <c r="I16" t="n">
-        <v>7.307405668167111e-05</v>
+        <v>0.0002288746582102822</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002539777152163535</v>
+        <v>0.0004786178901817847</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001635258859490123</v>
+        <v>0.0003537462741960334</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003920155484210568</v>
+        <v>0.0007950730052289272</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00729338302524376</v>
+        <v>0.01125457870717774</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000080450076929</v>
+        <v>1.000191569737988</v>
       </c>
       <c r="O16" t="n">
-        <v>0.007603877440012589</v>
+        <v>0.01173370942293198</v>
       </c>
       <c r="P16" t="n">
-        <v>101.6831511071457</v>
+        <v>99.94792094775447</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.657059926742</v>
+        <v>149.9218297673507</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_9</t>
+          <t>model_24_4_23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999467184429512</v>
+        <v>0.9993815312401481</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9992463662268483</v>
+        <v>0.9993715052284411</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9997621950999661</v>
+        <v>0.9964080628285893</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9992936358325942</v>
+        <v>0.9981174941493797</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9995724964316198</v>
+        <v>0.9979909614260256</v>
       </c>
       <c r="G17" t="n">
-        <v>4.973599471492582e-05</v>
+        <v>0.0005773134396808289</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007034840465377532</v>
+        <v>0.0005866722815181864</v>
       </c>
       <c r="I17" t="n">
-        <v>6.857328035046299e-05</v>
+        <v>0.0008532748331807195</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002355796850283415</v>
+        <v>0.002745741302437549</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001520766427740828</v>
+        <v>0.001799508067809134</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003857317168290854</v>
+        <v>0.001163461294613137</v>
       </c>
       <c r="M17" t="n">
-        <v>0.007052375111614938</v>
+        <v>0.02402734774545099</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000075221021716</v>
+        <v>1.00087313236685</v>
       </c>
       <c r="O17" t="n">
-        <v>0.007352609320545431</v>
+        <v>0.02505024168244145</v>
       </c>
       <c r="P17" t="n">
-        <v>101.8175632945196</v>
+        <v>96.9142504318627</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.7914721141158</v>
+        <v>146.8881592514589</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_4_8</t>
+          <t>model_24_4_24</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999506577422306</v>
+        <v>0.9993552952857372</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9992388378393441</v>
+        <v>0.9993605889447045</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9997787387973479</v>
+        <v>0.9962698734755412</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9993530464858246</v>
+        <v>0.9980339074734915</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9996070518293682</v>
+        <v>0.9979045808759073</v>
       </c>
       <c r="G18" t="n">
-        <v>4.605883175295872e-05</v>
+        <v>0.0006018035514980688</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007105114658149017</v>
+        <v>0.0005968621532168729</v>
       </c>
       <c r="I18" t="n">
-        <v>6.380274955637064e-05</v>
+        <v>0.0008861021048011877</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002157656236402572</v>
+        <v>0.002867657198871083</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001397841865983139</v>
+        <v>0.001876879651836135</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003785575027371888</v>
+        <v>0.001174411786238322</v>
       </c>
       <c r="M18" t="n">
-        <v>0.006786665731635728</v>
+        <v>0.02453168464451777</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000069659658027</v>
+        <v>1.000910171361312</v>
       </c>
       <c r="O18" t="n">
-        <v>0.007075588142166263</v>
+        <v>0.0255760492474228</v>
       </c>
       <c r="P18" t="n">
-        <v>101.9711820549705</v>
+        <v>96.83115898465334</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.9450908745667</v>
+        <v>146.8050678042496</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999547834778015</v>
+        <v>0.9998826914268284</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9992301778012743</v>
+        <v>0.9993543384155489</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9997960839147515</v>
+        <v>0.9991949179813285</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9994162123947042</v>
+        <v>0.9997279115660801</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9996436919335951</v>
+        <v>0.9996717115762755</v>
       </c>
       <c r="G19" t="n">
-        <v>4.220763869636438e-05</v>
+        <v>0.0001095024038044137</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007185952312213251</v>
+        <v>0.000602696747817106</v>
       </c>
       <c r="I19" t="n">
-        <v>5.880112175871722e-05</v>
+        <v>0.000191249510332854</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001946991460284815</v>
+        <v>0.0003968563766659158</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001267501338935994</v>
+        <v>0.0002940499374742087</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003703282088205592</v>
+        <v>0.0007606859714202341</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006496740620985601</v>
+        <v>0.01046433962581556</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000063835090163</v>
+        <v>1.000165612103301</v>
       </c>
       <c r="O19" t="n">
-        <v>0.006773320319328043</v>
+        <v>0.0109098282278558</v>
       </c>
       <c r="P19" t="n">
-        <v>102.1458186830815</v>
+        <v>100.2391281127939</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.1197275026778</v>
+        <v>150.2130369323901</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999590493793906</v>
+        <v>0.9998977212890849</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9992201560296688</v>
+        <v>0.9993329042111385</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9998138699322199</v>
+        <v>0.9993428765177569</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9994829110537407</v>
+        <v>0.9997741368390148</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9996821667708945</v>
+        <v>0.9997289648064668</v>
       </c>
       <c r="G20" t="n">
-        <v>3.822560681434e-05</v>
+        <v>9.547268712267336e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007279501151101217</v>
+        <v>0.0006227046367813239</v>
       </c>
       <c r="I20" t="n">
-        <v>5.36723562791236e-05</v>
+        <v>0.0001561015415728711</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001724544600539334</v>
+        <v>0.000329434200489525</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001130634081665285</v>
+        <v>0.0002427678710311981</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003610177724213684</v>
+        <v>0.000729329216924727</v>
       </c>
       <c r="M20" t="n">
-        <v>0.006182686051736737</v>
+        <v>0.00977101259454072</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00005781264086</v>
+        <v>1.000144393474233</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006445895796883674</v>
+        <v>0.01018698482947478</v>
       </c>
       <c r="P20" t="n">
-        <v>102.3440098629445</v>
+        <v>100.513340700197</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.3179186825408</v>
+        <v>150.4872495197932</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999633783525078</v>
+        <v>0.9999114391951213</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9992085230596611</v>
+        <v>0.9993071039789905</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9998317477654369</v>
+        <v>0.9994917743735673</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9995524624001688</v>
+        <v>0.9998166763010979</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997220160653187</v>
+        <v>0.9997833449883626</v>
       </c>
       <c r="G21" t="n">
-        <v>3.418470042938643e-05</v>
+        <v>8.266762398427111e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007388089819839198</v>
+        <v>0.0006467880209922239</v>
       </c>
       <c r="I21" t="n">
-        <v>4.851711486450631e-05</v>
+        <v>0.0001207304348372638</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001492583736145174</v>
+        <v>0.0002673879879976281</v>
       </c>
       <c r="K21" t="n">
-        <v>9.888774423951187e-05</v>
+        <v>0.0001940592114174459</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000350426651747587</v>
+        <v>0.0006926004437688649</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005846768374870552</v>
+        <v>0.00909217377662081</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000051701149401</v>
+        <v>1.000125027018652</v>
       </c>
       <c r="O21" t="n">
-        <v>0.006095677409067842</v>
+        <v>0.009479246437685943</v>
       </c>
       <c r="P21" t="n">
-        <v>102.5674647397102</v>
+        <v>100.8013650401591</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.5413735593064</v>
+        <v>150.7752738597553</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999676871914107</v>
+        <v>0.9999226409324119</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991949594120217</v>
+        <v>0.9992773674394638</v>
       </c>
       <c r="D22" t="n">
-        <v>0.99984930538895</v>
+        <v>0.99963064964184</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999624235483808</v>
+        <v>0.9998533579947809</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9997627770529242</v>
+        <v>0.9998316267519767</v>
       </c>
       <c r="G22" t="n">
-        <v>3.016258844968972e-05</v>
+        <v>7.221129392286873e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007514700516799624</v>
+        <v>0.0006745457753571533</v>
       </c>
       <c r="I22" t="n">
-        <v>4.345420893076347e-05</v>
+        <v>8.774022211542628e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001253213150582779</v>
+        <v>0.0002138856621719196</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438776199452068e-05</v>
+        <v>0.0001508129421436729</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003383305293926108</v>
+        <v>0.0006541324643487075</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005492047746486707</v>
+        <v>0.008497722866913743</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000045618082714</v>
+        <v>1.000109212801301</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005725855589160768</v>
+        <v>0.008859488522069624</v>
       </c>
       <c r="P22" t="n">
-        <v>102.817816389157</v>
+        <v>101.0718281975484</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.7917252087532</v>
+        <v>151.0457370171446</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999718231363829</v>
+        <v>0.9999319166378665</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991791532314757</v>
+        <v>0.9992400155918831</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9998658576545696</v>
+        <v>0.9997621145271915</v>
       </c>
       <c r="E23" t="n">
-        <v>0.99969671200841</v>
+        <v>0.9998864747918502</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998034603139517</v>
+        <v>0.9998760233343951</v>
       </c>
       <c r="G23" t="n">
-        <v>2.630186536525581e-05</v>
+        <v>6.355283003737296e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007662244274085699</v>
+        <v>0.0007094120855171323</v>
       </c>
       <c r="I23" t="n">
-        <v>3.868120740472231e-05</v>
+        <v>5.651036681330582e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001011496517356634</v>
+        <v>0.0001655829397725173</v>
       </c>
       <c r="K23" t="n">
-        <v>6.991542957019288e-05</v>
+        <v>0.0001110466532929115</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003245418090726094</v>
+        <v>0.0006079592882178033</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005128534426642353</v>
+        <v>0.007972002887441333</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000039779101577</v>
+        <v>1.000096117687718</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005346866754714331</v>
+        <v>0.008311387554680688</v>
       </c>
       <c r="P23" t="n">
-        <v>103.0917413897203</v>
+        <v>101.3272780577352</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.0656502093165</v>
+        <v>151.3011868773314</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999756381750988</v>
+        <v>0.9999377646479292</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991604256141208</v>
+        <v>0.9991944015447427</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9998806062535861</v>
+        <v>0.9998729784630467</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997687769926441</v>
+        <v>0.999913243214561</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998432195399065</v>
+        <v>0.9999125192910784</v>
       </c>
       <c r="G24" t="n">
-        <v>2.274069418468296e-05</v>
+        <v>5.80939693418642e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0007837058361620022</v>
+        <v>0.0007519907962974427</v>
       </c>
       <c r="I24" t="n">
-        <v>3.442831011371908e-05</v>
+        <v>3.017432532419979e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>7.711524134110739e-05</v>
+        <v>0.0001265396805902267</v>
       </c>
       <c r="K24" t="n">
-        <v>5.577180586803822e-05</v>
+        <v>7.835700295721323e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003087177921230683</v>
+        <v>0.0005580712840020678</v>
       </c>
       <c r="M24" t="n">
-        <v>0.004768720392797523</v>
+        <v>0.00762193999857413</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000034393164566</v>
+        <v>1.000087861673512</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004971734692530994</v>
+        <v>0.007946421763904329</v>
       </c>
       <c r="P24" t="n">
-        <v>103.3827090861538</v>
+        <v>101.5068973947926</v>
       </c>
       <c r="Q24" t="n">
-        <v>153.3566179057501</v>
+        <v>151.4808062143888</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999788287193884</v>
+        <v>0.9999392792597911</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991384646803062</v>
+        <v>0.9991371127582368</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9998921694289757</v>
+        <v>0.9999553814334285</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998372059579446</v>
+        <v>0.9999319546974188</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999879983425743</v>
+        <v>0.9999386812297756</v>
       </c>
       <c r="G25" t="n">
-        <v>1.976246113911325e-05</v>
+        <v>5.668014565257614e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008042054039042681</v>
+        <v>0.0008054673638135478</v>
       </c>
       <c r="I25" t="n">
-        <v>3.109395969613184e-05</v>
+        <v>1.059926667178079e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>5.429348050421358e-05</v>
+        <v>9.924792407547592e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>4.26937201001727e-05</v>
+        <v>5.492359537362836e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002910503562631138</v>
+        <v>0.0005026142074038751</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004445498975268496</v>
+        <v>0.007528621763150022</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000029888866746</v>
+        <v>1.000085723397942</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004634753070097183</v>
+        <v>0.00784913077800284</v>
       </c>
       <c r="P25" t="n">
-        <v>103.6634526436518</v>
+        <v>101.5561731468203</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.637361463248</v>
+        <v>151.5300819664166</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999981075472872</v>
+        <v>0.9999344671411321</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991127337495512</v>
+        <v>0.99906696048948</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9998992969930683</v>
+        <v>0.9999946272177139</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998986879513654</v>
+        <v>0.9999382315029908</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999116929474102</v>
+        <v>0.9999489960102198</v>
       </c>
       <c r="G26" t="n">
-        <v>1.766521538333582e-05</v>
+        <v>6.11720471931717e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008282240983067402</v>
+        <v>0.000870951427369339</v>
       </c>
       <c r="I26" t="n">
-        <v>2.903865952920855e-05</v>
+        <v>1.276319626446051e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>3.378860594610443e-05</v>
+        <v>9.009284798332813e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.141363273765649e-05</v>
+        <v>4.568458380488709e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002738792981958108</v>
+        <v>0.0004520877276276042</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004203000759378449</v>
+        <v>0.007821256113513461</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000026716979475</v>
+        <v>1.000092516977225</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004381931203116187</v>
+        <v>0.008154223178497866</v>
       </c>
       <c r="P26" t="n">
-        <v>103.8878261691353</v>
+        <v>101.403640435991</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.8617349887316</v>
+        <v>151.3775492555872</v>
       </c>
     </row>
   </sheetData>
